--- a/public/uploads/Student Excel Format.xlsx
+++ b/public/uploads/Student Excel Format.xlsx
@@ -8,41 +8,242 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{685E7014-663F-4DD4-923A-52CA6CD8BA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC942C81-BD14-4CE7-A543-D4B599F45870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Sample</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>First name</t>
+    </r>
+  </si>
+  <si>
+    <t>Student Information</t>
+  </si>
+  <si>
+    <r>
+      <t>Note: Fields with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are required to fill in or else your account will not be created.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Last name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Grade Level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Strand</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Section</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LRN</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +257,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +303,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,23 +630,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AED545-730E-4ED9-BB60-00C5B65EEB68}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F100 J4:J1048576" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
+      <formula1>"Male, Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576" xr:uid="{209861C4-6253-4120-911B-3FB6BBCB07BF}">
+      <formula1>"11, 12"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B1048576" xr:uid="{928D4595-CE46-4EF6-8C68-B4D3B9E29C21}">
+      <formula1>"ABM, STEM, HUMSS, GAS, HE, ICT, Caregiving, EIM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{8C4E2425-2746-44B4-9D47-D9E99AA02769}">
+      <formula1>"A, B"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/uploads/Student Excel Format.xlsx
+++ b/public/uploads/Student Excel Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC942C81-BD14-4CE7-A543-D4B599F45870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426750C1-6FAC-4632-8B5A-7F605A302C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
@@ -309,13 +309,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,46 +653,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -723,7 +723,7 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F100 J4:J1048576" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J1048576" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576" xr:uid="{209861C4-6253-4120-911B-3FB6BBCB07BF}">
